--- a/Produktionsförderung/Ausfuehrlicher Projektplan.xlsx
+++ b/Produktionsförderung/Ausfuehrlicher Projektplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E5A0F9-935B-481B-A23E-AF6B13DA71F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E02961E-19B8-4C69-8ECE-9980A9F2BD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26235" yWindow="0" windowWidth="31470" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>AKTIVITÄT</t>
   </si>
@@ -143,30 +143,15 @@
     <t>Airplanes DLC</t>
   </si>
   <si>
-    <t>Multiplayer Update</t>
-  </si>
-  <si>
     <t>In-App Käufe</t>
   </si>
   <si>
-    <t>Rallye DLC</t>
-  </si>
-  <si>
     <t>Fortgeschr. Tutorials</t>
   </si>
   <si>
-    <t>Neue Zahnräder, Ketten, Logiksystem</t>
-  </si>
-  <si>
     <t>Map Nr. 4</t>
   </si>
   <si>
-    <t>Map Nr. 5</t>
-  </si>
-  <si>
-    <t>Map Nr. 6</t>
-  </si>
-  <si>
     <t>Multiplayer Server Hosting</t>
   </si>
   <si>
@@ -179,18 +164,9 @@
     <t>Porting</t>
   </si>
   <si>
-    <t>Monarchen-Charaktere designen</t>
-  </si>
-  <si>
     <t>Karriere balancen</t>
   </si>
   <si>
-    <t>Soundtracks</t>
-  </si>
-  <si>
-    <t>Oldtimer DLC</t>
-  </si>
-  <si>
     <t>Localization</t>
   </si>
   <si>
@@ -245,26 +221,29 @@
     <t xml:space="preserve"> Playtest &amp; Polishing</t>
   </si>
   <si>
-    <t xml:space="preserve"> Konsolenportierungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maps &amp; Fahrzeugbauteile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fahrzeugeditor erweitern</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Monetarisierungen evaluieren</t>
   </si>
   <si>
     <t>Screw Drivers - Creactstudios - Projektplan</t>
+  </si>
+  <si>
+    <t>Boats/Ships DLC</t>
+  </si>
+  <si>
+    <t>Post-Release Support</t>
+  </si>
+  <si>
+    <t>Maps &amp; Bauteile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Konsolenportierungen &amp; Post Release</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -366,8 +345,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +595,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,6 +656,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -681,6 +698,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,38 +722,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="8" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1141,10 +1155,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO26"/>
+  <dimension ref="B1:BO27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AF26" sqref="AF26:AQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1175,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B1" s="12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1182,158 +1196,158 @@
         <v>1</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
       <c r="W2" s="16"/>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
       <c r="AC2" s="17"/>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="31"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="41"/>
       <c r="AL2" s="18"/>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
     </row>
     <row r="3" spans="2:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="32" t="s">
-        <v>39</v>
+      <c r="C3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32" t="s">
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32" t="s">
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="32"/>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="33"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="21"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1478,7 +1492,7 @@
       <c r="BC4" s="3">
         <v>48</v>
       </c>
-      <c r="BD4" s="34">
+      <c r="BD4" s="22">
         <v>49</v>
       </c>
       <c r="BE4" s="3">
@@ -1515,354 +1529,349 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="47">
+        <v>1</v>
+      </c>
+      <c r="D5" s="47">
+        <v>6</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="47">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="23"/>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47">
         <v>8</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47">
         <v>8</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="35"/>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="23"/>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="47">
+        <v>5</v>
+      </c>
+      <c r="D7" s="47">
+        <v>4</v>
+      </c>
+      <c r="E7" s="47">
+        <v>5</v>
+      </c>
+      <c r="F7" s="47">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="23"/>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="47">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="D8" s="47">
+        <v>6</v>
+      </c>
+      <c r="E8" s="47">
+        <v>7</v>
+      </c>
+      <c r="F8" s="47">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="23"/>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="47">
+        <v>9</v>
+      </c>
+      <c r="D9" s="47">
+        <v>8</v>
+      </c>
+      <c r="E9" s="47">
+        <v>9</v>
+      </c>
+      <c r="F9" s="47">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="23"/>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="47">
+        <v>13</v>
+      </c>
+      <c r="D10" s="47">
+        <v>4</v>
+      </c>
+      <c r="E10" s="47">
+        <v>13</v>
+      </c>
+      <c r="F10" s="47">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="23"/>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="35"/>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C11" s="47">
+        <v>13</v>
+      </c>
+      <c r="D11" s="47">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E11" s="47">
+        <v>13</v>
+      </c>
+      <c r="F11" s="47">
         <v>4</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="35"/>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="23"/>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="49">
+        <v>15</v>
+      </c>
+      <c r="D12" s="49">
+        <v>6</v>
+      </c>
+      <c r="E12" s="49">
+        <v>15</v>
+      </c>
+      <c r="F12" s="47">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="23"/>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="47">
+        <v>17</v>
+      </c>
+      <c r="D13" s="47">
+        <v>4</v>
+      </c>
+      <c r="E13" s="47">
+        <v>17</v>
+      </c>
+      <c r="F13" s="47">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="23"/>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="47">
+        <v>17</v>
+      </c>
+      <c r="D14" s="47">
+        <v>4</v>
+      </c>
+      <c r="E14" s="47">
+        <v>17</v>
+      </c>
+      <c r="F14" s="47">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="23"/>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="47">
+        <v>17</v>
+      </c>
+      <c r="D15" s="47">
         <v>8</v>
       </c>
-      <c r="E8" s="7">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E15" s="47">
+        <v>17</v>
+      </c>
+      <c r="F15" s="47">
         <v>8</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="35"/>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="35"/>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="23"/>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="49">
+        <v>25</v>
+      </c>
+      <c r="D16" s="49">
+        <v>2</v>
+      </c>
+      <c r="E16" s="47">
+        <v>25</v>
+      </c>
+      <c r="F16" s="47">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="23"/>
+    </row>
+    <row r="17" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD10" s="35"/>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C17" s="47">
+        <v>25</v>
+      </c>
+      <c r="D17" s="47">
+        <v>8</v>
+      </c>
+      <c r="E17" s="47">
+        <v>25</v>
+      </c>
+      <c r="F17" s="47">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="23"/>
+    </row>
+    <row r="18" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="47">
+        <v>25</v>
+      </c>
+      <c r="D18" s="47">
         <v>12</v>
       </c>
-      <c r="E11" s="7">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E18" s="47">
+        <v>25</v>
+      </c>
+      <c r="F18" s="47">
         <v>12</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="35"/>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="35"/>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="23"/>
+    </row>
+    <row r="19" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="47">
+        <v>25</v>
+      </c>
+      <c r="D19" s="47">
         <v>12</v>
       </c>
-      <c r="E13" s="7">
-        <v>23</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E19" s="47">
+        <v>25</v>
+      </c>
+      <c r="F19" s="47">
         <v>12</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="35"/>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7">
-        <v>27</v>
-      </c>
-      <c r="F14" s="7">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="35"/>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="35"/>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7">
-        <v>29</v>
-      </c>
-      <c r="F16" s="7">
-        <v>16</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="35"/>
-    </row>
-    <row r="17" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
-        <v>31</v>
-      </c>
-      <c r="D17" s="7">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7">
-        <v>31</v>
-      </c>
-      <c r="F17" s="7">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="35"/>
-    </row>
-    <row r="18" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="35"/>
-    </row>
-    <row r="19" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7">
-        <v>35</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3</v>
-      </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
-      <c r="BD19" s="35"/>
+      <c r="BD19" s="23"/>
     </row>
     <row r="20" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C20" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="BD20" s="35"/>
+      <c r="BD20" s="23"/>
     </row>
     <row r="21" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="7">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D21" s="7">
         <v>3</v>
       </c>
       <c r="E21" s="7">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7">
         <v>3</v>
@@ -1870,20 +1879,18 @@
       <c r="G21" s="4">
         <v>1</v>
       </c>
-      <c r="BD21" s="35"/>
+      <c r="BD21" s="23"/>
     </row>
     <row r="22" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7">
         <v>4</v>
       </c>
       <c r="E22" s="7">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7">
         <v>4</v>
@@ -1891,20 +1898,17 @@
       <c r="G22" s="4">
         <v>1</v>
       </c>
-      <c r="BD22" s="35"/>
+      <c r="BD22" s="23"/>
     </row>
     <row r="23" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C23" s="7">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D23" s="7">
         <v>2</v>
       </c>
       <c r="E23" s="7">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7">
         <v>2</v>
@@ -1912,20 +1916,17 @@
       <c r="G23" s="4">
         <v>1</v>
       </c>
-      <c r="BD23" s="35"/>
+      <c r="BD23" s="23"/>
     </row>
     <row r="24" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C24" s="7">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D24" s="7">
         <v>8</v>
       </c>
       <c r="E24" s="7">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7">
         <v>8</v>
@@ -1933,20 +1934,17 @@
       <c r="G24" s="4">
         <v>1</v>
       </c>
-      <c r="BD24" s="35"/>
+      <c r="BD24" s="23"/>
     </row>
     <row r="25" spans="2:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C25" s="7">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D25" s="7">
         <v>8</v>
       </c>
       <c r="E25" s="7">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7">
         <v>8</v>
@@ -1954,66 +1952,67 @@
       <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="BD25" s="35"/>
-    </row>
-    <row r="26" spans="2:56" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BD25" s="23"/>
+    </row>
+    <row r="26" spans="2:56" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I26" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="25"/>
       <c r="X26" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
       <c r="AF26" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="41"/>
-      <c r="AN26" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="40"/>
-      <c r="AT26" s="40"/>
-      <c r="AU26" s="41"/>
-      <c r="AV26" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW26" s="40"/>
-      <c r="AX26" s="40"/>
-      <c r="AY26" s="40"/>
-      <c r="AZ26" s="40"/>
-      <c r="BA26" s="40"/>
-      <c r="BB26" s="40"/>
-      <c r="BC26" s="41"/>
+        <v>40</v>
+      </c>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="27"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="44"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="44"/>
+    </row>
+    <row r="27" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
